--- a/Pogađanje pogreške.xlsx
+++ b/Pogađanje pogreške.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\FM vjezbe\Formalne-Metode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B44A4D6D-6B1D-4BD5-9833-440B132C3743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFC6D8CD-1D80-49EF-A204-96919583F14A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EE25EE4A-497B-419A-AB9F-48311D51D255}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{EE25EE4A-497B-419A-AB9F-48311D51D255}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -116,14 +116,14 @@
     <t>Sistem ne reaguje ispravno na istovremene pokušaje pretrage</t>
   </si>
   <si>
-    <t>Tabela pogađanja pogrešaka (Error guessing) sadrži popis potencijalnih grešaka u sustavu DLWMS pretrage arhive dokumenata, zajedno s odgovarajućim testnim slučajevima koji 
+    <t>Provjeri prikaz odabrane godine nakon ulaska u sistem</t>
+  </si>
+  <si>
+    <t>Provjeri prikaz odabranog predmeta nakon ulaska u sistem</t>
+  </si>
+  <si>
+    <t>Tabela pogađanja pogrešaka (Error guessing) sadrži popis potencijalnih grešaka u sistemu DLWMS pretrage arhive dokumenata, zajedno s odgovarajućim testnim slučajevima koji 
 su dizajnirani kako bi "napali" te defekte. Ova tabela pruža strukturisan pregled mogućih nesavršenosti u sistemu, čime se olakšava identifikacija i ispitivanje tih potencijalnih problema.</t>
-  </si>
-  <si>
-    <t>Provjeri prikaz odabrane godine nakon ulaska u sistem</t>
-  </si>
-  <si>
-    <t>Provjeri prikaz odabranog predmeta nakon ulaska u sistem</t>
   </si>
 </sst>
 </file>
@@ -208,9 +208,6 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -222,6 +219,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -539,7 +539,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EFBCF65-9D5A-4753-BB1C-47383B829096}">
   <dimension ref="B2:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -551,158 +551,158 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>1</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>2</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>3</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>4</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B8" s="5">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B8" s="6">
-        <v>5</v>
-      </c>
-      <c r="C8" s="3" t="s">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B9" s="5">
+        <v>6</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B10" s="5">
+        <v>7</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B11" s="5">
         <v>8</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="C11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B12" s="5">
+        <v>9</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B13" s="5">
+        <v>10</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B14" s="5">
+        <v>11</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B15" s="5">
+        <v>12</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" ht="87" x14ac:dyDescent="0.35">
+      <c r="C18" s="6" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B9" s="6">
-        <v>6</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B10" s="6">
-        <v>7</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B11" s="6">
-        <v>8</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B12" s="6">
-        <v>9</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B13" s="6">
-        <v>10</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B14" s="6">
-        <v>11</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B15" s="6">
-        <v>12</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3" ht="87" x14ac:dyDescent="0.35">
-      <c r="C18" s="7" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
